--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_3.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1878967.333027839</v>
+        <v>-1884255.448522611</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791245</v>
+        <v>419463.0933791243</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14157446.03160401</v>
+        <v>14155676.09343275</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>134.0606209684062</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>9.031127956876844</v>
@@ -707,25 +707,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>62.38881107877345</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>24.57725165965195</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>147.2954742968097</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>27.45865879968643</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>273.2405793882183</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>238.22974578967</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>355.6933966903619</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>3.625832343218476</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
@@ -990,10 +990,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968097</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>216.9931099894119</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>53.03638470914575</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,16 +1136,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>150.6786849551198</v>
       </c>
       <c r="F8" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>367.5641099711862</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -1181,7 +1181,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1294,25 +1294,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>53.0363847091458</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,22 +1370,22 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873668</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.952815562145</v>
+        <v>277.5000611371925</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>120.0961968842563</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>83.7561346009637</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D13" t="n">
-        <v>82.9984695717785</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465761</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442488</v>
+        <v>44.15094715580663</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187163</v>
@@ -1588,13 +1588,13 @@
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534023</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>105.3131909772423</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
@@ -1613,19 +1613,19 @@
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W14" t="n">
         <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>255.1574427247164</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>25.83353304178611</v>
       </c>
       <c r="D16" t="n">
-        <v>74.69798496361196</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681699</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338903</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456096</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901688</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
@@ -1819,7 +1819,7 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>192.2412393326521</v>
@@ -1828,10 +1828,10 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
@@ -1853,16 +1853,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422876545</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059378</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.7098784815729</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.389036785251</v>
+        <v>299.945574312612</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838883</v>
+        <v>24.17382596574981</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828895</v>
+        <v>52.06849973564994</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431727</v>
+        <v>70.57601873167826</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459968</v>
+        <v>55.72314698196067</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643941</v>
+        <v>41.29686219380039</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931852</v>
+        <v>41.2233042466795</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908579</v>
+        <v>42.97275566644677</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147792</v>
+        <v>53.79159358883891</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804996</v>
+        <v>41.14384575541095</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922189</v>
+        <v>18.98356133658288</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367781</v>
+        <v>9.882059701038798</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920513</v>
+        <v>88.00800320656612</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>469.51244933637</v>
+        <v>842.096262937951</v>
       </c>
       <c r="C2" t="n">
-        <v>469.51244933637</v>
+        <v>448.9207614408816</v>
       </c>
       <c r="D2" t="n">
-        <v>469.51244933637</v>
+        <v>63.47963265754937</v>
       </c>
       <c r="E2" t="n">
-        <v>469.51244933637</v>
+        <v>63.47963265754937</v>
       </c>
       <c r="F2" t="n">
-        <v>52.61801086634772</v>
+        <v>50.62559822793119</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J2" t="n">
-        <v>188.145432303583</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>673.8990329354866</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354866</v>
+        <v>588.4870060424344</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572949</v>
+        <v>1102.089684652122</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465277</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596799</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023269</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.27650096432</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="T2" t="n">
-        <v>1970.27650096432</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="U2" t="n">
-        <v>1714.523771398919</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="V2" t="n">
-        <v>1372.416962102437</v>
+        <v>1695.062614805961</v>
       </c>
       <c r="W2" t="n">
-        <v>1001.417927070725</v>
+        <v>1695.062614805961</v>
       </c>
       <c r="X2" t="n">
-        <v>1001.417927070725</v>
+        <v>1305.610009739018</v>
       </c>
       <c r="Y2" t="n">
-        <v>604.9272179913257</v>
+        <v>1242.591008649348</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>715.0405061833828</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284336</v>
+        <v>90.89050074442683</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>638.1843148743791</v>
       </c>
       <c r="M3" t="n">
-        <v>1498.174658585114</v>
+        <v>1151.786993484067</v>
       </c>
       <c r="N3" t="n">
-        <v>1940.417878182857</v>
+        <v>1435.175877545633</v>
       </c>
       <c r="O3" t="n">
-        <v>1940.417878182857</v>
+        <v>1435.175877545633</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182857</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>1898.178526015829</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1688.115382694471</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1465.575381065538</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1235.458135198825</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1046.151057548837</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>866.8368406243442</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1441.590001096749</v>
+        <v>410.72920005581</v>
       </c>
       <c r="C4" t="n">
-        <v>1441.590001096749</v>
+        <v>410.72920005581</v>
       </c>
       <c r="D4" t="n">
-        <v>1441.590001096749</v>
+        <v>255.0960869583247</v>
       </c>
       <c r="E4" t="n">
-        <v>1441.590001096749</v>
+        <v>255.0960869583247</v>
       </c>
       <c r="F4" t="n">
-        <v>1441.590001096749</v>
+        <v>255.0960869583247</v>
       </c>
       <c r="G4" t="n">
-        <v>1273.335947196195</v>
+        <v>255.0960869583247</v>
       </c>
       <c r="H4" t="n">
-        <v>1273.335947196195</v>
+        <v>99.61753591981872</v>
       </c>
       <c r="I4" t="n">
-        <v>1273.335947196195</v>
+        <v>71.88151693023647</v>
       </c>
       <c r="J4" t="n">
-        <v>1273.335947196195</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K4" t="n">
-        <v>1355.170988306137</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>1519.298628179936</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>1705.590206518201</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>1888.77984054941</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>2051.484607591118</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>2171.360773367696</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>2174.782969737747</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>2174.782969737747</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>2174.782969737747</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T4" t="n">
-        <v>2174.782969737747</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="U4" t="n">
-        <v>2174.782969737747</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="V4" t="n">
-        <v>2174.782969737747</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="W4" t="n">
-        <v>1898.782384497123</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="X4" t="n">
-        <v>1664.702062280106</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="Y4" t="n">
-        <v>1441.590001096749</v>
+        <v>595.9372187471113</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1034.231606628132</v>
+        <v>1315.38133282233</v>
       </c>
       <c r="C5" t="n">
-        <v>793.5954997698793</v>
+        <v>1315.38133282233</v>
       </c>
       <c r="D5" t="n">
-        <v>793.5954997698793</v>
+        <v>929.940204038998</v>
       </c>
       <c r="E5" t="n">
-        <v>793.5954997698793</v>
+        <v>929.940204038998</v>
       </c>
       <c r="F5" t="n">
-        <v>376.7010612998571</v>
+        <v>917.0861696093798</v>
       </c>
       <c r="G5" t="n">
-        <v>367.5787098282643</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475495</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J5" t="n">
-        <v>188.145432303583</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L5" t="n">
-        <v>547.1277883310449</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354866</v>
+        <v>1102.089684652122</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572949</v>
+        <v>1102.089684652122</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465277</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596799</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023269</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S5" t="n">
-        <v>2136.790056023269</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="T5" t="n">
-        <v>2136.790056023269</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="U5" t="n">
-        <v>2136.790056023269</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="V5" t="n">
-        <v>1794.683246726788</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="W5" t="n">
-        <v>1423.684211695075</v>
+        <v>1715.876078533727</v>
       </c>
       <c r="X5" t="n">
-        <v>1034.231606628132</v>
+        <v>1715.876078533727</v>
       </c>
       <c r="Y5" t="n">
-        <v>1034.231606628132</v>
+        <v>1715.876078533727</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813161</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>552.5303290689742</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>422.4413616904545</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>285.9948708013422</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>161.563064684474</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284336</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475495</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>43.49565939475495</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>176.1237484101839</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>714.3825334202763</v>
+        <v>1435.175877545633</v>
       </c>
       <c r="N6" t="n">
-        <v>1252.641318430369</v>
+        <v>1435.175877545633</v>
       </c>
       <c r="O6" t="n">
-        <v>1769.16160102135</v>
+        <v>1435.175877545633</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737747</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737747</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737747</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467701</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222774</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475495</v>
+        <v>520.9492258951757</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475495</v>
+        <v>520.9492258951757</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475495</v>
+        <v>365.3161127976904</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475495</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475495</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>618.2256087514338</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T7" t="n">
-        <v>382.5065569196679</v>
+        <v>520.9492258951757</v>
       </c>
       <c r="U7" t="n">
-        <v>97.06776516156884</v>
+        <v>520.9492258951757</v>
       </c>
       <c r="V7" t="n">
-        <v>43.49565939475495</v>
+        <v>520.9492258951757</v>
       </c>
       <c r="W7" t="n">
-        <v>43.49565939475495</v>
+        <v>520.9492258951757</v>
       </c>
       <c r="X7" t="n">
-        <v>43.49565939475495</v>
+        <v>520.9492258951757</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.49565939475495</v>
+        <v>520.9492258951757</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1681.888704297768</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="C8" t="n">
-        <v>1681.888704297768</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="D8" t="n">
-        <v>1296.447575514436</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="E8" t="n">
-        <v>893.8640506309803</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="F8" t="n">
-        <v>881.0100162013621</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
         <v>509.7331374425881</v>
@@ -4802,22 +4802,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>1681.888704297768</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V8" t="n">
-        <v>1681.888704297768</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W8" t="n">
-        <v>1681.888704297768</v>
+        <v>1477.403224325005</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.888704297768</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.888704297768</v>
+        <v>1087.950619258062</v>
       </c>
     </row>
     <row r="9">
@@ -4887,16 +4887,16 @@
         <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M9" t="n">
-        <v>1549.231189288413</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N9" t="n">
-        <v>1614.763130931309</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>2131.28341352229</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
         <v>2131.28341352229</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1714.395101119023</v>
+        <v>1229.733075037216</v>
       </c>
       <c r="C11" t="n">
-        <v>1393.015874768147</v>
+        <v>908.3538486863404</v>
       </c>
       <c r="D11" t="n">
-        <v>1079.371021131009</v>
+        <v>594.7089950492018</v>
       </c>
       <c r="E11" t="n">
-        <v>748.5837713937469</v>
+        <v>594.7089950492018</v>
       </c>
       <c r="F11" t="n">
-        <v>403.4856080699185</v>
+        <v>594.7089950492018</v>
       </c>
       <c r="G11" t="n">
-        <v>62.11912770411553</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H11" t="n">
         <v>62.11912770411553</v>
@@ -5069,22 +5069,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U11" t="n">
-        <v>3105.956385205776</v>
+        <v>2770.29560349218</v>
       </c>
       <c r="V11" t="n">
-        <v>2984.647095423699</v>
+        <v>2499.985069341892</v>
       </c>
       <c r="W11" t="n">
-        <v>2685.444335538181</v>
+        <v>2200.782309456374</v>
       </c>
       <c r="X11" t="n">
-        <v>2367.788005617431</v>
+        <v>1883.125979535624</v>
       </c>
       <c r="Y11" t="n">
-        <v>2043.093571684226</v>
+        <v>1558.431545602419</v>
       </c>
     </row>
     <row r="12">
@@ -5124,19 +5124,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>580.3847592515303</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.156408878212</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>399.8503184534335</v>
+        <v>530.3256286689337</v>
       </c>
       <c r="C13" t="n">
-        <v>315.2481622908438</v>
+        <v>431.9167858811168</v>
       </c>
       <c r="D13" t="n">
-        <v>231.4113243395524</v>
+        <v>431.9167858811168</v>
       </c>
       <c r="E13" t="n">
-        <v>147.6487873449487</v>
+        <v>348.1542488865132</v>
       </c>
       <c r="F13" t="n">
-        <v>62.11912770411553</v>
+        <v>303.5573325675166</v>
       </c>
       <c r="G13" t="n">
-        <v>62.11912770411553</v>
+        <v>207.099553813156</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774624</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581885</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.410653902773</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118216</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138154</v>
+        <v>999.6269248138159</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
-        <v>1422.942916173671</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
         <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1496.732641814507</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T13" t="n">
-        <v>1332.809865128935</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U13" t="n">
-        <v>1119.16734851703</v>
+        <v>936.0428256245441</v>
       </c>
       <c r="V13" t="n">
-        <v>924.9842784840479</v>
+        <v>741.8597555915622</v>
       </c>
       <c r="W13" t="n">
-        <v>713.4501515614195</v>
+        <v>530.3256286689337</v>
       </c>
       <c r="X13" t="n">
-        <v>551.1661044905964</v>
+        <v>530.3256286689337</v>
       </c>
       <c r="Y13" t="n">
-        <v>399.8503184534335</v>
+        <v>530.3256286689337</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1625.315396040535</v>
+        <v>1357.33730510659</v>
       </c>
       <c r="C14" t="n">
-        <v>1303.936169689659</v>
+        <v>1035.958078755714</v>
       </c>
       <c r="D14" t="n">
-        <v>990.291316052521</v>
+        <v>722.3132251185756</v>
       </c>
       <c r="E14" t="n">
-        <v>659.5040663152594</v>
+        <v>722.3132251185756</v>
       </c>
       <c r="F14" t="n">
-        <v>314.405902991431</v>
+        <v>722.3132251185756</v>
       </c>
       <c r="G14" t="n">
-        <v>314.405902991431</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>3105.956385205776</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2835.645851055489</v>
+        <v>2405.267789429137</v>
       </c>
       <c r="W14" t="n">
-        <v>2536.44309116997</v>
+        <v>2106.065029543618</v>
       </c>
       <c r="X14" t="n">
-        <v>2278.708300538943</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y14" t="n">
-        <v>1954.013866605738</v>
+        <v>1463.714265689663</v>
       </c>
     </row>
     <row r="15">
@@ -5355,16 +5355,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N15" t="n">
         <v>1223.947919817482</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>379.0098426317711</v>
+        <v>316.9565686277451</v>
       </c>
       <c r="C16" t="n">
-        <v>379.0098426317711</v>
+        <v>290.8620908077596</v>
       </c>
       <c r="D16" t="n">
-        <v>303.5573325675165</v>
+        <v>290.8620908077596</v>
       </c>
       <c r="E16" t="n">
-        <v>303.5573325675165</v>
+        <v>207.099553813156</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675165</v>
+        <v>207.099553813156</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>207.099553813156</v>
       </c>
       <c r="H16" t="n">
         <v>123.4172779208438</v>
@@ -5434,52 +5434,52 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774628</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027733</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118224</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138162</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593279</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.68534223645</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245443</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="V16" t="n">
-        <v>741.8597555915625</v>
+        <v>955.5022722034669</v>
       </c>
       <c r="W16" t="n">
-        <v>530.3256286689339</v>
+        <v>743.9681452808384</v>
       </c>
       <c r="X16" t="n">
-        <v>530.3256286689339</v>
+        <v>581.6840982100153</v>
       </c>
       <c r="Y16" t="n">
-        <v>379.0098426317711</v>
+        <v>430.3683121728525</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975453</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5549,7 +5549,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
         <v>2405.467337224691</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>161.4017547291065</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>243.2367958390484</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>407.3644357128481</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567345</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879436</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296516</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5735,16 +5735,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924335</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5786,7 +5786,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
         <v>2405.467337224691</v>
@@ -5829,16 +5829,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5908,13 +5908,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222412</v>
       </c>
       <c r="L22" t="n">
-        <v>437.1381783102856</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M22" t="n">
         <v>629.0093992567336</v>
@@ -5978,10 +5978,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -5993,13 +5993,13 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6008,7 +6008,7 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
         <v>3105.956385205777</v>
@@ -6026,7 +6026,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6075,16 +6075,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1458.313011372373</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6139,7 +6139,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6157,7 +6157,7 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
         <v>969.3241577214669</v>
@@ -6166,7 +6166,7 @@
         <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
@@ -6218,10 +6218,10 @@
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
@@ -6230,43 +6230,43 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1286.389518343937</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388517</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2609.386271932278</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647881</v>
+        <v>3079.395388107029</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508977</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6312,10 +6312,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278173</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225743</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6467,19 +6467,19 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M29" t="n">
-        <v>1925.441780118092</v>
+        <v>1832.390418388518</v>
       </c>
       <c r="N29" t="n">
-        <v>2546.304425485127</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O29" t="n">
-        <v>3079.395388107029</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6540,16 +6540,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463666</v>
+        <v>904.3560533993079</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057089</v>
+        <v>601.3807258108109</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230767</v>
+        <v>302.1370811803392</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835499</v>
       </c>
       <c r="I32" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>323.8570290861561</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770515</v>
+        <v>763.1363857084596</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1256.456677426988</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1802.457577471569</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031763</v>
+        <v>2330.268861109031</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.897938924092</v>
+        <v>2770.30846200136</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901621</v>
+        <v>3118.495954132882</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042569</v>
+        <v>3303.34151427383</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.37741203808</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394123</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965123</v>
+        <v>365.6713676929714</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918662</v>
+        <v>309.3853606404859</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237455</v>
+        <v>267.6713584245259</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123127</v>
+        <v>226.0316571652537</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546503</v>
+        <v>182.6248332597519</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834604</v>
+        <v>128.2898902407227</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431906</v>
+        <v>86.73045008374193</v>
       </c>
       <c r="I34" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>143.5810516071546</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074065</v>
+        <v>225.4160927170965</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082765</v>
+        <v>501.1958531658792</v>
       </c>
       <c r="M34" t="n">
-        <v>893.1204358736109</v>
+        <v>687.4874315041432</v>
       </c>
       <c r="N34" t="n">
-        <v>1094.837393831234</v>
+        <v>870.6770655353523</v>
       </c>
       <c r="O34" t="n">
-        <v>1362.815253600013</v>
+        <v>1033.38183257706</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376591</v>
+        <v>1264.910118928622</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.984435873656</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.7859626250181</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439551</v>
+        <v>835.7257283273676</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000933</v>
+        <v>666.3144371400705</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012441</v>
+        <v>546.1532258045788</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.021071758449</v>
+        <v>436.9602755027474</v>
       </c>
     </row>
     <row r="35">
@@ -6914,22 +6914,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6965,10 +6965,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
@@ -6977,7 +6977,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960409</v>
+        <v>313.6614512960402</v>
       </c>
       <c r="M37" t="n">
-        <v>499.953029634305</v>
+        <v>499.9530296343043</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>683.1426636655135</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838002</v>
       </c>
       <c r="Q37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7330,22 +7330,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>67.6987703122989</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222408</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485498</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P40" t="n">
         <v>1094.779966106229</v>
@@ -7394,22 +7394,22 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129437</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
         <v>565.7512566404055</v>
@@ -7430,16 +7430,16 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829237</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
         <v>2855.219708188068</v>
@@ -7482,10 +7482,10 @@
         <v>199.803798091603</v>
       </c>
       <c r="H42" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
         <v>175.2341099238429</v>
@@ -7558,34 +7558,34 @@
         <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.3386307407268</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462922</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>67.69877031229987</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222417</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>442.71782091847</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>629.009399256734</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879432</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296512</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.77996610623</v>
+        <v>965.7235964838011</v>
       </c>
       <c r="Q43" t="n">
         <v>1098.202162476281</v>
@@ -7640,7 +7640,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,7 +7673,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>67.69877031229981</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>278.5901810446702</v>
+        <v>149.5338114222413</v>
       </c>
       <c r="L46" t="n">
-        <v>442.71782091847</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M46" t="n">
-        <v>629.009399256734</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879432</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296512</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7982,13 +7982,13 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>281.2999319572004</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>193.5145772035919</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920144</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8058,22 +8058,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837487</v>
+        <v>611.1777065035421</v>
       </c>
       <c r="N3" t="n">
-        <v>532.0824356801691</v>
+        <v>371.6235108961527</v>
       </c>
       <c r="O3" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8219,13 +8219,13 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>277.776813824436</v>
+        <v>214.0018366896111</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>224.0281135391697</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837487</v>
+        <v>574.4602701392387</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886035</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>614.1534811140714</v>
       </c>
       <c r="M8" t="n">
-        <v>506.8283140129063</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8468,7 +8468,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8535,19 +8535,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>151.5659933015362</v>
+        <v>230.2980308590267</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8772,22 +8772,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>176.3345925796061</v>
+        <v>192.2856137303845</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,19 +9003,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N15" t="n">
-        <v>136.3731801151487</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,7 +9249,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>577.006990218999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N18" t="n">
         <v>85.37211285416666</v>
@@ -9261,7 +9261,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,10 +9486,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>454.5321323046928</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9723,10 +9723,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>577.006990218999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118427</v>
+        <v>220.884447093964</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10200,7 +10200,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>447.5171231095471</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10437,7 +10437,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>333.2595653118435</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10829,7 +10829,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M38" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N38" t="n">
         <v>682.2612020826953</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>60.45275442495237</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344424</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372792</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362804</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>147.5112319245287</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>13.66861975897507</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>40.52341588861823</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681701</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338906</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456099</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901691</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>220.0982948823087</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372789</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362801</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>59.32232389682543</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993875</v>
+        <v>71.59122131815265</v>
       </c>
       <c r="D16" t="n">
-        <v>8.300484608166514</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465758</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442485</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-1.097362201107899e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-6.679101716144942e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1240834.697920274</v>
+        <v>1239932.376499634</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1240834.697920274</v>
+        <v>1239932.376499634</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1106418.335919953</v>
+        <v>1106418.335919954</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1106418.335919953</v>
+        <v>1106418.335919954</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>54099.65342800704</v>
+      </c>
+      <c r="C2" t="n">
         <v>54099.65342800703</v>
       </c>
-      <c r="C2" t="n">
-        <v>54099.65342800705</v>
-      </c>
       <c r="D2" t="n">
-        <v>54099.65342800704</v>
+        <v>54099.65342800703</v>
       </c>
       <c r="E2" t="n">
-        <v>47807.70702732014</v>
+        <v>47807.70702732012</v>
       </c>
       <c r="F2" t="n">
-        <v>47807.70702732012</v>
+        <v>47807.70702732013</v>
       </c>
       <c r="G2" t="n">
         <v>54099.65342800705</v>
       </c>
       <c r="H2" t="n">
-        <v>54099.65342800703</v>
+        <v>54099.65342800706</v>
       </c>
       <c r="I2" t="n">
         <v>54099.65342800703</v>
       </c>
       <c r="J2" t="n">
-        <v>54099.65342800701</v>
+        <v>54099.65342800703</v>
       </c>
       <c r="K2" t="n">
-        <v>54099.65342800705</v>
+        <v>54099.653428007</v>
       </c>
       <c r="L2" t="n">
-        <v>54099.65342800696</v>
+        <v>54099.65342800703</v>
       </c>
       <c r="M2" t="n">
-        <v>54099.65342800704</v>
+        <v>54099.65342800703</v>
       </c>
       <c r="N2" t="n">
         <v>54099.65342800703</v>
       </c>
       <c r="O2" t="n">
-        <v>54099.65342800704</v>
+        <v>54099.65342800705</v>
       </c>
       <c r="P2" t="n">
-        <v>54099.65342800706</v>
+        <v>54099.65342800703</v>
       </c>
     </row>
     <row r="3">
@@ -26363,49 +26363,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918558</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062201</v>
+        <v>22558.42953401358</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>47425.32553668198</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>200285.8640399293</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>62456.24177539681</v>
+      </c>
+      <c r="M3" t="n">
+        <v>43252.52447081124</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>27767.69404277114</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-11</v>
-      </c>
-      <c r="G3" t="n">
-        <v>47425.32553668192</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>206802.1491945024</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>57301.47179728554</v>
-      </c>
-      <c r="M3" t="n">
-        <v>42200.82945962307</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
-      </c>
-      <c r="O3" t="n">
-        <v>27767.69404277115</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199815.2079190949</v>
+        <v>205625.0607746776</v>
       </c>
       <c r="C4" t="n">
-        <v>199815.2079190949</v>
+        <v>205625.0607746777</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
       </c>
       <c r="E4" t="n">
-        <v>112797.3745002077</v>
+        <v>112797.3745002078</v>
       </c>
       <c r="F4" t="n">
         <v>112797.3745002078</v>
@@ -26445,7 +26445,7 @@
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>161051.2095556898</v>
+        <v>160917.8149466349</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,13 +26482,13 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.1981331542</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,7 +26506,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-394604.8039229574</v>
+        <v>-390554.1319155428</v>
       </c>
       <c r="C6" t="n">
-        <v>-212399.8556311017</v>
+        <v>-216695.4748814878</v>
       </c>
       <c r="D6" t="n">
-        <v>-218991.916970824</v>
+        <v>-226728.2061942156</v>
       </c>
       <c r="E6" t="n">
-        <v>-230298.2486467726</v>
+        <v>-230507.9801934623</v>
       </c>
       <c r="F6" t="n">
-        <v>-118175.6871727282</v>
+        <v>-118385.4187194178</v>
       </c>
       <c r="G6" t="n">
-        <v>-212051.7324159845</v>
+        <v>-212051.7324159846</v>
       </c>
       <c r="H6" t="n">
         <v>-164626.4068793026</v>
@@ -26543,25 +26543,25 @@
         <v>-164626.4068793026</v>
       </c>
       <c r="J6" t="n">
-        <v>-377668.324476588</v>
+        <v>-371152.0393220148</v>
       </c>
       <c r="K6" t="n">
         <v>-170866.1752820856</v>
       </c>
       <c r="L6" t="n">
-        <v>-226048.7642167068</v>
+        <v>-230097.6014271789</v>
       </c>
       <c r="M6" t="n">
-        <v>-206827.2363389257</v>
+        <v>-207878.9313501139</v>
       </c>
       <c r="N6" t="n">
+        <v>-164626.4068793026</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-192394.1009220737</v>
+      </c>
+      <c r="P6" t="n">
         <v>-164626.4068793027</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-192394.1009220738</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-164626.4068793026</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,16 +26808,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.34435300952</v>
+        <v>844.4391950293134</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,7 +26826,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014443</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,40 +26914,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>59.28165692085247</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>34.70961755346399</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>78.07030221924602</v>
+      </c>
+      <c r="M2" t="n">
+        <v>17.58004954287441</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>34.70961755346393</v>
+      </c>
+      <c r="P2" t="n">
         <v>2.842170943040401e-14</v>
-      </c>
-      <c r="G2" t="n">
-        <v>59.2816569208524</v>
-      </c>
-      <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>34.709617553464</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>71.62683974660693</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.02351201551345</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
-      </c>
-      <c r="O2" t="n">
-        <v>34.70961755346394</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485822</v>
+        <v>72.6215418150648</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773706</v>
+        <v>659.3622249971644</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407311</v>
+        <v>117.1268713042797</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.2816569208524</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485822</v>
+        <v>72.6215418150648</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>262.4291772858767</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>330.1369909098314</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>124.5704364758568</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>27.9184993862709</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -27549,16 +27549,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>104.3048223096065</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27597,10 +27597,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>7.256518659915855</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>151.0140006924287</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -27673,13 +27673,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>11.5956479910335</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>145.5218557922902</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.9184993862709</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27777,16 +27777,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>16.36875132403631</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>210.2831670182383</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27856,16 +27856,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>247.879004679501</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>41.46701798569069</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28014,25 +28014,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>130.3599693155843</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>35.71049010668918</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28980,16 +28980,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M22" t="n">
-        <v>5.636002634529177</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29065,7 +29065,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29229,19 +29229,19 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>30.27223765901124</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431648</v>
+        <v>30.27223765901266</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29539,22 +29539,22 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901215</v>
       </c>
       <c r="M29" t="n">
-        <v>30.27223765901272</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>81.10808140893096</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>86.27291196566392</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>106.8683420224718</v>
       </c>
       <c r="K34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>18.71446861253963</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30165,28 +30165,28 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668811</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>5.636002634528353</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30402,16 +30402,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668774</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30420,7 +30420,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>5.636002634528595</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -30502,7 +30502,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>37.61298457733328</v>
@@ -30639,28 +30639,28 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>35.71049010668869</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5.636002634529405</v>
+      </c>
+      <c r="Q43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -30876,13 +30876,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>35.71049010668865</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
+        <v>5.636002634529177</v>
+      </c>
+      <c r="L46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -34702,13 +34702,13 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>128.0517622267088</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>43.78952560586463</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34778,22 +34778,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="N3" t="n">
-        <v>446.7103228260024</v>
+        <v>286.251398041986</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34939,13 +34939,13 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>128.0517622267088</v>
+        <v>64.27678509188387</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>133.9677666822515</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344369</v>
+        <v>482.0731480899267</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344369</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>460.9053113835797</v>
       </c>
       <c r="M8" t="n">
-        <v>357.103262415179</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35188,7 +35188,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,19 +35255,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>66.19388044736954</v>
+        <v>144.9259180048601</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35492,22 +35492,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>86.27424572268784</v>
+        <v>102.2252668734663</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257283</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35574,19 +35574,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488438</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N15" t="n">
-        <v>51.00106726098203</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,7 +35969,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>484.6198681696871</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36048,7 +36048,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>223.8838015594811</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36063,7 +36063,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,10 +36206,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>193.8093140873211</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36361,7 +36361,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L23" t="n">
-        <v>498.3033249682118</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
         <v>551.5160606510915</v>
@@ -36443,10 +36443,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>484.6198681696871</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36525,19 +36525,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O25" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>528.5755626272222</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>474.756683004799</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.3782898969832</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576761</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,22 +36835,22 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>528.5755626272231</v>
       </c>
       <c r="M29" t="n">
-        <v>581.7882983101042</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36920,7 +36920,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>362.1450102553805</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>258.890801498799</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>443.7165218407106</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511624</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449821</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>437.9774494722516</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273771</v>
+        <v>75.16693519537672</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>247.8874524576769</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791191</v>
+        <v>76.79385455031267</v>
       </c>
       <c r="K34" t="n">
-        <v>188.998114986881</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.121952122091</v>
+        <v>278.56541459473</v>
       </c>
       <c r="M34" t="n">
-        <v>294.509768752863</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>203.7545029874984</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>233.8669559106682</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>116.2366837828625</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634529037</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565483</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37482,7 +37482,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N38" t="n">
         <v>533.1427107449111</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.636002634528664</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37716,7 +37716,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>126.7230387724868</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
@@ -37798,7 +37798,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110602</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.636002634529619</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37953,10 +37953,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724876</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.636002634529582</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>213.0216270023943</v>
+        <v>88.29766032133915</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
